--- a/Lab 6/Data/Run_2..xlsx
+++ b/Lab 6/Data/Run_2..xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kathryn\Dropbox\2015 Spring\LITEC\Labs\LITEC\Lab 6\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="720" yWindow="330" windowWidth="22755" windowHeight="9750"/>
   </bookViews>
@@ -513,10 +518,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -567,6 +573,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1055,11 +1064,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="52994048"/>
-        <c:axId val="52992256"/>
+        <c:axId val="234753272"/>
+        <c:axId val="234752880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="52994048"/>
+        <c:axId val="234753272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25000"/>
@@ -1090,12 +1099,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52992256"/>
+        <c:crossAx val="234752880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52992256"/>
+        <c:axId val="234752880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1125,7 +1134,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52994048"/>
+        <c:crossAx val="234753272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1220,7 +1229,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1255,7 +1264,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1467,7 +1476,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D35" sqref="B3:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,18 +1492,18 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>45</v>
       </c>
       <c r="C4">
@@ -1505,7 +1514,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>45</v>
       </c>
       <c r="C5">
@@ -1516,7 +1525,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>45</v>
       </c>
       <c r="C6">
@@ -1527,7 +1536,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>45</v>
       </c>
       <c r="C7">
@@ -1538,7 +1547,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>45</v>
       </c>
       <c r="C8">
@@ -1549,7 +1558,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>45</v>
       </c>
       <c r="C9">
@@ -1560,7 +1569,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>45</v>
       </c>
       <c r="C10">
@@ -1571,7 +1580,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>45</v>
       </c>
       <c r="C11">
@@ -1582,7 +1591,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>45</v>
       </c>
       <c r="C12">
@@ -1593,7 +1602,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>45</v>
       </c>
       <c r="C13">
@@ -1604,7 +1613,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>45</v>
       </c>
       <c r="C14">
@@ -1615,7 +1624,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>45</v>
       </c>
       <c r="C15">
@@ -1626,7 +1635,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>45</v>
       </c>
       <c r="C16">
@@ -1637,7 +1646,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>45</v>
       </c>
       <c r="C17">
@@ -1648,7 +1657,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>45</v>
       </c>
       <c r="C18">
@@ -1659,7 +1668,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>45</v>
       </c>
       <c r="C19">
@@ -1670,7 +1679,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>45</v>
       </c>
       <c r="C20">
@@ -1681,7 +1690,7 @@
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>45</v>
       </c>
       <c r="C21">
@@ -1692,7 +1701,7 @@
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>45</v>
       </c>
       <c r="C22">
@@ -1703,7 +1712,7 @@
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>45</v>
       </c>
       <c r="C23">
@@ -1714,7 +1723,7 @@
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>45</v>
       </c>
       <c r="C24">
@@ -1725,7 +1734,7 @@
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>45</v>
       </c>
       <c r="C25">
@@ -1736,7 +1745,7 @@
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>45</v>
       </c>
       <c r="C26">
@@ -1747,7 +1756,7 @@
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>45</v>
       </c>
       <c r="C27">
@@ -1758,7 +1767,7 @@
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>45</v>
       </c>
       <c r="C28">
@@ -1769,7 +1778,7 @@
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>45</v>
       </c>
       <c r="C29">
@@ -1780,7 +1789,7 @@
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>45</v>
       </c>
       <c r="C30">
@@ -1791,7 +1800,7 @@
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>45</v>
       </c>
       <c r="C31">
@@ -1802,7 +1811,7 @@
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>45</v>
       </c>
       <c r="C32">
@@ -1813,7 +1822,7 @@
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>45</v>
       </c>
       <c r="C33">
@@ -1824,7 +1833,7 @@
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>45</v>
       </c>
       <c r="C34">
@@ -1835,7 +1844,7 @@
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>45</v>
       </c>
       <c r="C35">

--- a/Lab 6/Data/Run_2..xlsx
+++ b/Lab 6/Data/Run_2..xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kathryn\Dropbox\2015 Spring\LITEC\Labs\LITEC\Lab 6\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="720" yWindow="330" windowWidth="22755" windowHeight="9750"/>
   </bookViews>
   <sheets>
     <sheet name="Run_2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Time (ms)</t>
   </si>
@@ -34,6 +29,9 @@
   </si>
   <si>
     <t>kd: 5</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
 </sst>
 </file>
@@ -733,105 +731,105 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Run_2!$C$4:$C$35</c:f>
+              <c:f>Run_2!$E$4:$E$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>59</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69</c:v>
+                  <c:v>-24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>59</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>54</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>51</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>51</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>48</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>37</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>61</c:v>
+                  <c:v>-16</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>63</c:v>
+                  <c:v>-18</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>53</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>40</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>48</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>55</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>55</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>51</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>47</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>47</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>48</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>49</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>46</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -951,105 +949,105 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Run_2!$B$4:$B$35</c:f>
+              <c:f>Run_2!$A$4:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1064,11 +1062,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="234753272"/>
-        <c:axId val="234752880"/>
+        <c:axId val="93853568"/>
+        <c:axId val="93855744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="234753272"/>
+        <c:axId val="93853568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25000"/>
@@ -1099,14 +1097,15 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="234752880"/>
+        <c:crossAx val="93855744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="234752880"/>
+        <c:axId val="93855744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="80"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1122,7 +1121,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Heading (degrees)</a:t>
+                  <a:t>Heading Error (degrees)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1134,7 +1133,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="234753272"/>
+        <c:crossAx val="93853568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1156,15 +1155,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1229,7 +1228,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1264,7 +1263,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1473,25 +1472,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="B3:D35"/>
+      <selection activeCell="A4" sqref="A4:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1501,8 +1500,14 @@
       <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
       <c r="B4" s="1">
         <v>45</v>
       </c>
@@ -1512,8 +1517,15 @@
       <c r="D4">
         <v>6400</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f>B4-C4</f>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
       <c r="B5" s="1">
         <v>45</v>
       </c>
@@ -1523,8 +1535,15 @@
       <c r="D5">
         <v>6800</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f t="shared" ref="E5:E35" si="0">B5-C5</f>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
       <c r="B6" s="1">
         <v>45</v>
       </c>
@@ -1534,8 +1553,15 @@
       <c r="D6">
         <v>7200</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
       <c r="B7" s="1">
         <v>45</v>
       </c>
@@ -1545,8 +1571,15 @@
       <c r="D7">
         <v>7600</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
       <c r="B8" s="1">
         <v>45</v>
       </c>
@@ -1556,8 +1589,15 @@
       <c r="D8">
         <v>8000</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
       <c r="B9" s="1">
         <v>45</v>
       </c>
@@ -1567,8 +1607,15 @@
       <c r="D9">
         <v>8400</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
       <c r="B10" s="1">
         <v>45</v>
       </c>
@@ -1578,8 +1625,15 @@
       <c r="D10">
         <v>9200</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
       <c r="B11" s="1">
         <v>45</v>
       </c>
@@ -1589,8 +1643,15 @@
       <c r="D11">
         <v>9600</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
       <c r="B12" s="1">
         <v>45</v>
       </c>
@@ -1600,8 +1661,15 @@
       <c r="D12">
         <v>10000</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
       <c r="B13" s="1">
         <v>45</v>
       </c>
@@ -1611,8 +1679,15 @@
       <c r="D13">
         <v>10400</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
       <c r="B14" s="1">
         <v>45</v>
       </c>
@@ -1622,8 +1697,15 @@
       <c r="D14">
         <v>10800</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
       <c r="B15" s="1">
         <v>45</v>
       </c>
@@ -1633,8 +1715,15 @@
       <c r="D15">
         <v>11200</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
       <c r="B16" s="1">
         <v>45</v>
       </c>
@@ -1644,8 +1733,15 @@
       <c r="D16">
         <v>11600</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
       <c r="B17" s="1">
         <v>45</v>
       </c>
@@ -1655,8 +1751,15 @@
       <c r="D17">
         <v>12400</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
       <c r="B18" s="1">
         <v>45</v>
       </c>
@@ -1666,8 +1769,15 @@
       <c r="D18">
         <v>12800</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0</v>
+      </c>
       <c r="B19" s="1">
         <v>45</v>
       </c>
@@ -1677,8 +1787,15 @@
       <c r="D19">
         <v>13200</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0</v>
+      </c>
       <c r="B20" s="1">
         <v>45</v>
       </c>
@@ -1688,8 +1805,15 @@
       <c r="D20">
         <v>13600</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0</v>
+      </c>
       <c r="B21" s="1">
         <v>45</v>
       </c>
@@ -1699,8 +1823,15 @@
       <c r="D21">
         <v>14000</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
       <c r="B22" s="1">
         <v>45</v>
       </c>
@@ -1710,8 +1841,15 @@
       <c r="D22">
         <v>14400</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0</v>
+      </c>
       <c r="B23" s="1">
         <v>45</v>
       </c>
@@ -1721,8 +1859,15 @@
       <c r="D23">
         <v>14800</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0</v>
+      </c>
       <c r="B24" s="1">
         <v>45</v>
       </c>
@@ -1732,8 +1877,15 @@
       <c r="D24">
         <v>15200</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0</v>
+      </c>
       <c r="B25" s="1">
         <v>45</v>
       </c>
@@ -1743,8 +1895,15 @@
       <c r="D25">
         <v>15600</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
       <c r="B26" s="1">
         <v>45</v>
       </c>
@@ -1754,8 +1913,15 @@
       <c r="D26">
         <v>16000</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0</v>
+      </c>
       <c r="B27" s="1">
         <v>45</v>
       </c>
@@ -1765,8 +1931,15 @@
       <c r="D27">
         <v>16400</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0</v>
+      </c>
       <c r="B28" s="1">
         <v>45</v>
       </c>
@@ -1776,8 +1949,15 @@
       <c r="D28">
         <v>16800</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0</v>
+      </c>
       <c r="B29" s="1">
         <v>45</v>
       </c>
@@ -1787,8 +1967,15 @@
       <c r="D29">
         <v>17200</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0</v>
+      </c>
       <c r="B30" s="1">
         <v>45</v>
       </c>
@@ -1798,8 +1985,15 @@
       <c r="D30">
         <v>17600</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0</v>
+      </c>
       <c r="B31" s="1">
         <v>45</v>
       </c>
@@ -1809,8 +2003,15 @@
       <c r="D31">
         <v>18000</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0</v>
+      </c>
       <c r="B32" s="1">
         <v>45</v>
       </c>
@@ -1820,8 +2021,15 @@
       <c r="D32">
         <v>18400</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0</v>
+      </c>
       <c r="B33" s="1">
         <v>45</v>
       </c>
@@ -1831,8 +2039,15 @@
       <c r="D33">
         <v>18800</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0</v>
+      </c>
       <c r="B34" s="1">
         <v>45</v>
       </c>
@@ -1842,8 +2057,15 @@
       <c r="D34">
         <v>19200</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0</v>
+      </c>
       <c r="B35" s="1">
         <v>45</v>
       </c>
@@ -1852,6 +2074,10 @@
       </c>
       <c r="D35">
         <v>20000</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
